--- a/biology/Botanique/Ruth_Kiew/Ruth_Kiew.xlsx
+++ b/biology/Botanique/Ruth_Kiew/Ruth_Kiew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruth Kiew, née le 5 mars 1946, est une botaniste anglaise, qui a beaucoup travaillé en Malaisie.
-Elle est chargée de l'herbier et de la bibliothèque du Jardin botanique de Singapour, et c'est l'une des grands expertes mondiales sur les bégonias tropicaux[1].
-Elle a étudié à l'Université de Cambridge. Elle développe des activités académiques dans le Département de Biologie de l'Université Pertanian en Malaisie[2].
+Elle est chargée de l'herbier et de la bibliothèque du Jardin botanique de Singapour, et c'est l'une des grands expertes mondiales sur les bégonias tropicaux.
+Elle a étudié à l'Université de Cambridge. Elle développe des activités académiques dans le Département de Biologie de l'Université Pertanian en Malaisie.
 </t>
         </is>
       </c>
@@ -515,12 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auteur
-2010, Flora of Peninsular Malaysia: Series II: seed plant, Malayan forest records 49, Forest Research Institute Malaysia,  (ISBN 9675221321)
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2010, Flora of Peninsular Malaysia: Series II: seed plant, Malayan forest records 49, Forest Research Institute Malaysia,  (ISBN 9675221321)
 2000, Thuc Vat Tu Nhien o Vinh Ha Long, Con Nguyen Tien Hiep, Wendy Gibbs, Thanh Nien Publ. House, 43 pp.
-1995, The Taxonomy and Phytochemistry of the Asclepiadaceae in Tropical Asia: Proceedings of Botany 2000 Asia International Seminar and Workshop, Malacca, junio 1994, The Herbarium, Dep. of Biology, Univ. Pertanian Malaysia &amp; Botany 200 Asia, 102 pp.
-Éditrice
-2012, Wild Orchids of Peninsular Malaysia, avec Peter O'Byrne, Sze Yee Wendy Yong, Leng Guan Saw, photographies de Poh Teck Ong, Ed. MPH Group Publish, 196 pp.  (ISBN 9674150765 et 9789674150761)</t>
+1995, The Taxonomy and Phytochemistry of the Asclepiadaceae in Tropical Asia: Proceedings of Botany 2000 Asia International Seminar and Workshop, Malacca, junio 1994, The Herbarium, Dep. of Biology, Univ. Pertanian Malaysia &amp; Botany 200 Asia, 102 pp.</t>
         </is>
       </c>
     </row>
@@ -545,13 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nommée membre de la Royal Geographical Society.
-Médaille David Fairchild pour l'Exploration botanique, du National Tropical Botanical Gardens[1]</t>
+          <t>Éditrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2012, Wild Orchids of Peninsular Malaysia, avec Peter O'Byrne, Sze Yee Wendy Yong, Leng Guan Saw, photographies de Poh Teck Ong, Ed. MPH Group Publish, 196 pp.  (ISBN 9674150765 et 9789674150761)</t>
         </is>
       </c>
     </row>
@@ -576,12 +596,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nommée membre de la Royal Geographical Society.
+Médaille David Fairchild pour l'Exploration botanique, du National Tropical Botanical Gardens</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ruth_Kiew</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruth_Kiew</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ridleyandra kiewii (Kiew) A.weber, une espèce de Gesneriaceae, lui est dédiée[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ridleyandra kiewii (Kiew) A.weber, une espèce de Gesneriaceae, lui est dédiée.</t>
         </is>
       </c>
     </row>
